--- a/src/main/resources/configuration/CoursekeyTest.xlsx
+++ b/src/main/resources/configuration/CoursekeyTest.xlsx
@@ -1,131 +1,131 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="124226" filterPrivacy="1"/>
-  <xr:revisionPtr documentId="13_ncr:1_{26D794BA-A572-4F8E-B831-D5D34D7AD507}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CC1502A-8999-4FAE-B1A7-564D27770849}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="1" tabRatio="908" windowHeight="3375" windowWidth="13755" xWindow="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}" yWindow="2445"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13755" windowHeight="3375" tabRatio="908" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Test Cases" r:id="rId1" sheetId="2"/>
-    <sheet name="Test Steps" r:id="rId2" sheetId="1"/>
-    <sheet name="InstructorLoginData" r:id="rId3" sheetId="3"/>
-    <sheet name="StudentLoginData" r:id="rId4" sheetId="7"/>
-    <sheet name="LoginErrorMessages" r:id="rId5" sheetId="8"/>
-    <sheet name="Pages" r:id="rId6" sheetId="4"/>
-    <sheet name="Settings" r:id="rId7" sheetId="6"/>
+    <sheet name="Test Cases" sheetId="2" r:id="rId1"/>
+    <sheet name="Test Steps" sheetId="1" r:id="rId2"/>
+    <sheet name="InstructorLoginData" sheetId="3" r:id="rId3"/>
+    <sheet name="StudentLoginData" sheetId="7" r:id="rId4"/>
+    <sheet name="LoginErrorMessages" sheetId="8" r:id="rId5"/>
+    <sheet name="Pages" sheetId="4" r:id="rId6"/>
+    <sheet name="Settings" sheetId="6" r:id="rId7"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
   </externalReferences>
   <definedNames>
-    <definedName localSheetId="0" name="Action_Keywords">Settings!$A$2:$A$1048576</definedName>
+    <definedName name="Action_Keywords" localSheetId="0">Settings!$A$2:$A$1048576</definedName>
     <definedName name="Action_Keywords">Settings!$A$2:$A$1048576</definedName>
-    <definedName localSheetId="3" name="allObjects">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="allObjects">Settings!#REF!</definedName>
+    <definedName name="allObjects" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="allObjects" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="allObjects">Settings!#REF!</definedName>
     <definedName name="AskProfessorPage">Pages!$M$2:$M$34</definedName>
     <definedName name="AttendancePage">Pages!$H:$H</definedName>
     <definedName name="ChatPage">Pages!$K:$K</definedName>
-    <definedName localSheetId="3" name="clickAndHold">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="clickAndHold">Settings!#REF!</definedName>
+    <definedName name="clickAndHold" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="clickAndHold" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="clickAndHold">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="ClickOnTextItem">Settings!#REF!</definedName>
+    <definedName name="ClickOnTextItem" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="ClickOnTextItem">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="conditionOfElementIs">Settings!#REF!</definedName>
+    <definedName name="conditionOfElementIs" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="conditionOfElementIs">Settings!#REF!</definedName>
     <definedName name="CreateAssessment">Pages!$G$2:$G$1048576</definedName>
     <definedName name="CreateCoursePage">Pages!$E$2:$E$1048576</definedName>
-    <definedName localSheetId="3" name="DDTMode">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="ddtMode">Settings!#REF!</definedName>
+    <definedName name="DDTMode" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="ddtMode" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="DDTMode">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="deselectElementDropDown">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="deselectElementDropDown">Settings!#REF!</definedName>
+    <definedName name="deselectElementDropDown" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="deselectElementDropDown" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="deselectElementDropDown">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="doubleClick">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="doubleClick">Settings!#REF!</definedName>
+    <definedName name="doubleClick" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="doubleClick" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="doubleClick">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="explicitWait">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="explicitWait">Settings!#REF!</definedName>
+    <definedName name="explicitWait" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="explicitWait" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="explicitWait">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="getFromObject">Settings!#REF!</definedName>
+    <definedName name="getFromObject" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="getFromObject">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="getFromPage">Settings!#REF!</definedName>
+    <definedName name="getFromPage" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="getFromPage">Settings!#REF!</definedName>
     <definedName name="Gradebook">Pages!$F$2:$F$1048576</definedName>
-    <definedName localSheetId="0" name="Home_Page">Pages!#REF!</definedName>
-    <definedName localSheetId="0" name="implicitWait">Settings!#REF!</definedName>
+    <definedName name="Home_Page" localSheetId="0">Pages!#REF!</definedName>
+    <definedName name="implicitWait" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="InboxPage">Pages!$I$2:$I$34</definedName>
-    <definedName localSheetId="3" name="inputActions">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="inputActions">Settings!#REF!</definedName>
+    <definedName name="inputActions" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="inputActions" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="inputActions">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="JavaDocs_Page">Pages!#REF!</definedName>
-    <definedName localSheetId="3" name="keyDown">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="keyDown">Settings!#REF!</definedName>
+    <definedName name="JavaDocs_Page" localSheetId="0">Pages!#REF!</definedName>
+    <definedName name="keyDown" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="keyDown" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="keyDown">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="keyUp">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="keyUp">Settings!#REF!</definedName>
+    <definedName name="keyUp" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="keyUp" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="keyUp">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="Login_Page">Pages!#REF!</definedName>
+    <definedName name="Login_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="LoginPage">Pages!$B$2:$B$1048576</definedName>
-    <definedName localSheetId="0" name="Mercury_Register">Pages!#REF!</definedName>
-    <definedName localSheetId="3" name="multipleGetObject">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="multipleGetObject">Settings!#REF!</definedName>
+    <definedName name="Mercury_Register" localSheetId="0">Pages!#REF!</definedName>
+    <definedName name="multipleGetObject" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="multipleGetObject" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="multipleGetObject">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="multipleGetPage">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="multipleGetPage">Settings!#REF!</definedName>
+    <definedName name="multipleGetPage" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="multipleGetPage" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="multipleGetPage">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="multipleObjectGet">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="multiplePageGet">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="Object_Type">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="Object_Type">Settings!#REF!</definedName>
+    <definedName name="multipleObjectGet" localSheetId="0">Settings!#REF!</definedName>
+    <definedName name="multiplePageGet" localSheetId="0">Settings!#REF!</definedName>
+    <definedName name="Object_Type" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="Object_Type" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="Object_Type">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="Page_Name">Pages!$A$2:$A$1048576</definedName>
+    <definedName name="Page_Name" localSheetId="0">Pages!$A$2:$A$1048576</definedName>
     <definedName name="Page_Name">Pages!$A$2:$A$1048576</definedName>
-    <definedName localSheetId="0" name="PopUpWin_Page">Pages!#REF!</definedName>
+    <definedName name="PopUpWin_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="ProfilePage">Pages!$D$2:$D$1048576</definedName>
-    <definedName localSheetId="3" name="release">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="release">Settings!#REF!</definedName>
+    <definedName name="release" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="release" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="release">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="rightClick">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="rightClick">Settings!#REF!</definedName>
+    <definedName name="rightClick" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="rightClick" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="rightClick">Settings!#REF!</definedName>
     <definedName name="RoasterPage">Pages!$L:$L</definedName>
-    <definedName localSheetId="3" name="runMode">[1]Settings!#REF!</definedName>
+    <definedName name="runMode" localSheetId="3">[1]Settings!#REF!</definedName>
     <definedName name="runMode">[1]Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="SearchObjectByText">Settings!#REF!</definedName>
+    <definedName name="SearchObjectByText" localSheetId="3">Settings!#REF!</definedName>
     <definedName name="SearchObjectByText">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="selectCondition">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="selectCondition">Settings!#REF!</definedName>
+    <definedName name="selectCondition" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="selectCondition" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="selectCondition">Settings!#REF!</definedName>
-    <definedName localSheetId="3" name="selectElementDropDown">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="selectElementDropDown">Settings!#REF!</definedName>
+    <definedName name="selectElementDropDown" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="selectElementDropDown" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="selectElementDropDown">Settings!#REF!</definedName>
     <definedName name="SendAssesment">Pages!#REF!</definedName>
     <definedName name="SendAssessment">Pages!$J:$J</definedName>
     <definedName name="SignUpPage">Pages!$C$2:$C$1048576</definedName>
-    <definedName localSheetId="3" name="Store_Home_Page">Pages!#REF!</definedName>
-    <definedName localSheetId="0" name="Store_Home_Page">Pages!#REF!</definedName>
+    <definedName name="Store_Home_Page" localSheetId="3">Pages!#REF!</definedName>
+    <definedName name="Store_Home_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="Store_Home_Page">Pages!#REF!</definedName>
-    <definedName localSheetId="3" name="Store_LogIn_Page">Pages!#REF!</definedName>
-    <definedName localSheetId="0" name="Store_LogIn_Page">Pages!#REF!</definedName>
+    <definedName name="Store_LogIn_Page" localSheetId="3">Pages!#REF!</definedName>
+    <definedName name="Store_LogIn_Page" localSheetId="0">Pages!#REF!</definedName>
     <definedName name="Store_LogIn_Page">Pages!#REF!</definedName>
     <definedName name="StudentHomePage">Pages!$N$2:$N$34</definedName>
-    <definedName localSheetId="3" name="switchToAlert">Settings!#REF!</definedName>
-    <definedName localSheetId="0" name="switchToAlert">Settings!#REF!</definedName>
+    <definedName name="switchToAlert" localSheetId="3">Settings!#REF!</definedName>
+    <definedName name="switchToAlert" localSheetId="0">Settings!#REF!</definedName>
     <definedName name="switchToAlert">Settings!#REF!</definedName>
     <definedName name="Test_Case_ID">'Test Cases'!$A$2:$A$1048576</definedName>
     <definedName name="TestCaseID">'[2]Test Cases'!$A$2:$A$1048576</definedName>
-    <definedName localSheetId="0" name="YesNo">Settings!$B$2:$B$3</definedName>
+    <definedName name="YesNo" localSheetId="0">Settings!$B$2:$B$3</definedName>
   </definedNames>
   <calcPr calcId="179021" fullPrecision="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7754" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6133" uniqueCount="789">
   <si>
     <t>Description</t>
   </si>
@@ -2498,7 +2498,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="0"/>
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2919,167 +2918,167 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf applyAlignment="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="4" fontId="2" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="123">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="0" fontId="4" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="7" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="5" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="3" fontId="7" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="10" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="8" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="3" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="9" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="10" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="11" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="3" fontId="12" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="3" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" applyFont="1" borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="14" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="2" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="4" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="13" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="3" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="15" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="12" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="6" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="9" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="1" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="12" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyFill="1" applyFont="1" borderId="0" fillId="3" fontId="1" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" borderId="15" fillId="0" fontId="11" numFmtId="0" xfId="0"/>
-    <xf applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="14" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="2" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="2" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="16" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="17" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="0" fontId="0" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" borderId="14" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="17" numFmtId="0" xfId="0"/>
-    <xf applyFill="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="1"/>
-    <xf applyBorder="1" applyFont="1" borderId="5" fillId="0" fontId="16" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="14" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="5" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="19" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="18" fillId="0" fontId="13" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="9" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="6" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="1" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="0" fillId="4" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" borderId="2" fillId="2" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyBorder="1" applyFill="1" applyFont="1" borderId="5" fillId="0" fontId="8" numFmtId="0" quotePrefix="1" xfId="0"/>
-    <xf applyBorder="1" applyFont="1" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="8" name="Hipervínculo" xfId="1"/>
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="166">
     <dxf>
@@ -4745,10 +4744,10 @@
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="1" defaultPivotStyle="PivotStyleMedium9" defaultTableStyle="TableStyleMedium2">
-    <tableStyle count="2" name="MySqlDefault" pivot="0" table="0" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement dxfId="165" type="wholeTable"/>
-      <tableStyleElement dxfId="164" type="headerRow"/>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="wholeTable" dxfId="165"/>
+      <tableStyleElement type="headerRow" dxfId="164"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -4763,7 +4762,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -4779,7 +4778,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="8248" name="AutoShape 56">
+        <xdr:cNvPr id="8248" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000038200000}"/>
@@ -4787,7 +4786,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4800,7 +4799,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -4833,7 +4832,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="2" name="AutoShape 56">
+        <xdr:cNvPr id="2" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000002000000}"/>
@@ -4841,7 +4840,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4854,7 +4853,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -4887,7 +4886,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="3" name="AutoShape 56">
+        <xdr:cNvPr id="3" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000003000000}"/>
@@ -4895,7 +4894,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4908,7 +4907,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -4941,7 +4940,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="4" name="AutoShape 56">
+        <xdr:cNvPr id="4" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000004000000}"/>
@@ -4949,7 +4948,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -4962,7 +4961,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -4995,7 +4994,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="5" name="AutoShape 56">
+        <xdr:cNvPr id="5" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000005000000}"/>
@@ -5003,7 +5002,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5016,7 +5015,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -5049,7 +5048,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="6" name="AutoShape 56">
+        <xdr:cNvPr id="6" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000006000000}"/>
@@ -5057,7 +5056,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5070,7 +5069,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -5103,7 +5102,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="7" name="AutoShape 56">
+        <xdr:cNvPr id="7" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000007000000}"/>
@@ -5111,7 +5110,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5124,7 +5123,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -5157,7 +5156,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="8" name="AutoShape 56">
+        <xdr:cNvPr id="8" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000008000000}"/>
@@ -5165,7 +5164,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5178,7 +5177,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="b" l="0" r="r" t="0"/>
+          <a:rect l="0" t="0" r="r" b="b"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -5211,7 +5210,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="9" name="Rectangle 56">
+        <xdr:cNvPr id="9" name="Rectangle 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-000009000000}"/>
@@ -5219,7 +5218,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5260,7 +5259,7 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr hidden="1" id="10" name="AutoShape 56">
+        <xdr:cNvPr id="10" name="AutoShape 56" hidden="1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0400-00000A000000}"/>
@@ -5268,7 +5267,7 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1" noSelect="1"/>
+          <a:spLocks noSelect="1" noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
@@ -5281,7 +5280,7 @@
           <a:gdLst/>
           <a:ahLst/>
           <a:cxnLst/>
-          <a:rect b="0" l="0" r="0" t="0"/>
+          <a:rect l="0" t="0" r="0" b="0"/>
           <a:pathLst/>
         </a:custGeom>
         <a:solidFill>
@@ -5351,10 +5350,10 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData refreshError="1" sheetId="1"/>
-      <sheetData refreshError="1" sheetId="2"/>
-      <sheetData refreshError="1" sheetId="3"/>
-      <sheetData refreshError="1" sheetId="4"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -5365,10 +5364,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -5403,7 +5402,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5455,7 +5454,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -5560,7 +5559,7 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="95000"/>
@@ -5569,13 +5568,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -5585,7 +5584,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="20000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -5594,7 +5593,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5603,7 +5602,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dir="5400000" dist="23000" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -5613,12 +5612,12 @@
             <a:camera prst="orthographicFront">
               <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
+            <a:lightRig rig="threePt" dir="t">
               <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
-            <a:bevelT h="25400" w="63500"/>
+            <a:bevelT w="63500" h="25400"/>
           </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
@@ -5649,7 +5648,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="180000" l="50000" r="50000" t="-80000"/>
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
@@ -5668,7 +5667,7 @@
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
-            <a:fillToRect b="50000" l="50000" r="50000" t="50000"/>
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
@@ -5680,23 +5679,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G72"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A30" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="38" width="63.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="38" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="38" width="4.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="38" width="18.42578125" collapsed="true"/>
-    <col min="5" max="16384" style="38" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="63.42578125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" style="38" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="4.42578125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.42578125" style="38" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="38" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30.75" r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="37" t="s">
         <v>3</v>
       </c>
@@ -5835,14 +5834,12 @@
         <v>276</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D8" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E8" t="s">
-        <v>477</v>
-      </c>
+      <c r="E8"/>
       <c r="F8" s="44"/>
       <c r="G8" s="44"/>
     </row>
@@ -5854,14 +5851,12 @@
         <v>278</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D9" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E9" t="s">
-        <v>477</v>
-      </c>
+      <c r="E9"/>
       <c r="F9" s="44"/>
       <c r="G9" s="44"/>
     </row>
@@ -5873,14 +5868,12 @@
         <v>280</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E10" t="s">
-        <v>477</v>
-      </c>
+      <c r="E10"/>
       <c r="F10" s="44"/>
       <c r="G10" s="44"/>
     </row>
@@ -5892,14 +5885,12 @@
         <v>282</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D11" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E11" t="s">
-        <v>477</v>
-      </c>
+      <c r="E11"/>
       <c r="F11" s="44"/>
       <c r="G11" s="44"/>
     </row>
@@ -5911,14 +5902,12 @@
         <v>308</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="D12" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E12" t="s">
-        <v>477</v>
-      </c>
+      <c r="E12"/>
       <c r="F12" s="44"/>
       <c r="G12" s="44"/>
     </row>
@@ -6574,7 +6563,7 @@
       </c>
       <c r="E54"/>
     </row>
-    <row customHeight="1" ht="15.75" r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="57" t="s">
         <v>586</v>
       </c>
@@ -6589,7 +6578,7 @@
       </c>
       <c r="E55"/>
     </row>
-    <row customHeight="1" ht="15.75" r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="57" t="s">
         <v>588</v>
       </c>
@@ -6836,115 +6825,115 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E1">
-    <cfRule dxfId="163" operator="containsText" priority="52" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="163" priority="52" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E1)))</formula>
     </cfRule>
-    <cfRule dxfId="162" operator="containsText" priority="53" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="162" priority="53" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E5 E8 E11 E14 E17 E20 E23 E26 E29 E32 E35 E38 E41 E44 E47 E50 E53 E56 E59 E62 E65 E68 E71">
-    <cfRule dxfId="161" operator="containsText" priority="31" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="161" priority="31" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E2)))</formula>
     </cfRule>
-    <cfRule dxfId="160" operator="containsText" priority="32" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="160" priority="32" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E5 E8 E11 E14 E17 E20 E23 E26 E29 E32 E35 E38 E41 E44 E47 E50 E53 E56 E59 E62 E65 E68 E71">
-    <cfRule dxfId="159" operator="containsText" priority="29" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="159" priority="29" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E2)))</formula>
     </cfRule>
-    <cfRule dxfId="158" operator="containsText" priority="30" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="158" priority="30" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2 E5 E8 E11 E14 E17 E20 E23 E26 E29 E32 E35 E38 E41 E44 E47 E50 E53 E56 E59 E62 E65 E68 E71">
-    <cfRule dxfId="157" operator="containsText" priority="27" text="NOT RUN" type="containsText">
+    <cfRule type="containsText" dxfId="157" priority="27" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E2)))</formula>
     </cfRule>
-    <cfRule dxfId="156" operator="containsText" priority="28" text="NOT RUN" type="containsText">
+    <cfRule type="containsText" dxfId="156" priority="28" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E1:E2 E73:E1048576 E4:E5 E7:E8 E10:E11 E13:E14 E16:E17 E19:E20 E22:E23 E25:E26 E28:E29 E31:E32 E34:E35 E37:E38 E40:E41 E43:E44 E46:E47 E49:E50 E52:E53 E55:E56 E58:E59 E61:E62 E64:E65 E67:E68 E70:E71">
-    <cfRule dxfId="155" operator="containsText" priority="19" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="155" priority="19" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E1)))</formula>
     </cfRule>
-    <cfRule dxfId="154" operator="containsText" priority="20" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="154" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E6 E9 E12 E15 E18 E21 E24 E27 E30 E33 E36 E39 E42 E45 E48 E51 E54 E57 E60 E63 E66 E69 E72">
-    <cfRule dxfId="153" operator="containsText" priority="17" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="153" priority="17" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E3)))</formula>
     </cfRule>
-    <cfRule dxfId="152" operator="containsText" priority="18" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="152" priority="18" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E6 E9 E12 E15 E18 E21 E24 E27 E30 E33 E36 E39 E42 E45 E48 E51 E54 E57 E60 E63 E66 E69 E72">
-    <cfRule dxfId="151" operator="containsText" priority="15" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="151" priority="15" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",E3)))</formula>
     </cfRule>
-    <cfRule dxfId="150" operator="containsText" priority="16" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="150" priority="16" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E6 E9 E12 E15 E18 E21 E24 E27 E30 E33 E36 E39 E42 E45 E48 E51 E54 E57 E60 E63 E66 E69 E72">
-    <cfRule dxfId="149" operator="containsText" priority="13" text="NOT RUN" type="containsText">
+    <cfRule type="containsText" dxfId="149" priority="13" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E3)))</formula>
     </cfRule>
-    <cfRule dxfId="148" operator="containsText" priority="14" text="NOT RUN" type="containsText">
+    <cfRule type="containsText" dxfId="148" priority="14" operator="containsText" text="NOT RUN">
       <formula>NOT(ISERROR(SEARCH("NOT RUN",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3 E6 E9 E12 E15 E18 E21 E24 E27 E30 E33 E36 E39 E42 E45 E48 E51 E54 E57 E60 E63 E66 E69 E72">
-    <cfRule dxfId="147" operator="containsText" priority="11" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="147" priority="11" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",E3)))</formula>
     </cfRule>
-    <cfRule dxfId="146" operator="containsText" priority="12" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="146" priority="12" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",E3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A40:A41" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A40:A41" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Test_Case_ID</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C2:C1048576" type="list" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>YesNo</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:PT866"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:PS866"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A130" workbookViewId="0" zoomScale="70" zoomScaleNormal="70">
+    <sheetView showGridLines="0" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E141" sqref="E141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="17" width="63.42578125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="17" width="5.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="17" width="56.85546875" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="17" width="17.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="17" width="23.140625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="17" width="26.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="17" width="58.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="17" width="6.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="17" width="38.140625" collapsed="true"/>
-    <col min="10" max="10" style="17" width="9.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="17" width="8.85546875" collapsed="true"/>
-    <col min="12" max="16384" style="17" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="63.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.85546875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="56.85546875" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.140625" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="26.7109375" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="58.42578125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="6.5703125" style="17" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="38.140625" style="17" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="9.140625" style="17" collapsed="1"/>
+    <col min="11" max="11" width="8.85546875" style="17" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="17" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -6970,7 +6959,7 @@
         <v>5</v>
       </c>
     </row>
-    <row ht="15.75" r="2" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>176</v>
       </c>
@@ -7406,7 +7395,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="15.75" r="19" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23" t="s">
         <v>101</v>
       </c>
@@ -7866,7 +7855,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="15.75" r="37" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="23" t="s">
         <v>123</v>
       </c>
@@ -8094,7 +8083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="15.75" r="46" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="55" t="s">
         <v>193</v>
       </c>
@@ -9012,7 +9001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="15.75" r="82" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="56" t="s">
         <v>189</v>
       </c>
@@ -9930,7 +9919,7 @@
         <v>41</v>
       </c>
     </row>
-    <row ht="15.75" r="118" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="56" t="s">
         <v>190</v>
       </c>
@@ -10526,7 +10515,7 @@
         <v>477</v>
       </c>
     </row>
-    <row ht="15.75" r="141" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="61" t="s">
         <v>194</v>
       </c>
@@ -11030,7 +11019,7 @@
       </c>
       <c r="H161" s="50"/>
     </row>
-    <row ht="15.75" r="162" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="61" t="s">
         <v>277</v>
       </c>
@@ -11912,7 +11901,7 @@
       </c>
       <c r="H198" s="50"/>
     </row>
-    <row ht="15.75" r="199" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="61" t="s">
         <v>279</v>
       </c>
@@ -12670,7 +12659,7 @@
       </c>
       <c r="H230" s="50"/>
     </row>
-    <row ht="15.75" r="231" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="60" t="s">
         <v>281</v>
       </c>
@@ -13322,7 +13311,7 @@
       </c>
       <c r="H258" s="50"/>
     </row>
-    <row ht="15.75" r="259" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="50" t="s">
         <v>307</v>
       </c>
@@ -13885,7 +13874,7 @@
       </c>
       <c r="H282" s="50"/>
     </row>
-    <row ht="15.75" r="283" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="47" t="s">
         <v>323</v>
       </c>
@@ -14330,7 +14319,7 @@
       </c>
       <c r="H298" s="50"/>
     </row>
-    <row ht="15.75" r="299" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="47" t="s">
         <v>345</v>
       </c>
@@ -14445,7 +14434,7 @@
       <c r="N302" s="77"/>
       <c r="O302" s="77"/>
     </row>
-    <row ht="15.75" r="303" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="63" t="s">
         <v>603</v>
       </c>
@@ -14660,7 +14649,7 @@
       <c r="N309" s="77"/>
       <c r="O309" s="77"/>
     </row>
-    <row ht="15.75" r="310" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="63" t="s">
         <v>480</v>
       </c>
@@ -14873,7 +14862,7 @@
       <c r="N316" s="77"/>
       <c r="O316" s="77"/>
     </row>
-    <row ht="15.75" r="317" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="63" t="s">
         <v>481</v>
       </c>
@@ -15088,7 +15077,7 @@
       <c r="N323" s="77"/>
       <c r="O323" s="77"/>
     </row>
-    <row ht="15.75" r="324" spans="1:435" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:435" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="62" t="s">
         <v>482</v>
       </c>
@@ -15181,7 +15170,7 @@
       <c r="N326" s="77"/>
       <c r="O326" s="77"/>
     </row>
-    <row customFormat="1" r="327" s="50" spans="1:435" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:435" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A327" s="4" t="s">
         <v>483</v>
       </c>
@@ -15663,7 +15652,7 @@
       <c r="N328" s="77"/>
       <c r="O328" s="77"/>
     </row>
-    <row ht="15.75" r="329" spans="1:435" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:435" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="63" t="s">
         <v>483</v>
       </c>
@@ -15897,7 +15886,7 @@
       <c r="M336" s="77"/>
       <c r="N336" s="77"/>
     </row>
-    <row customHeight="1" ht="15.75" r="337" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="4" t="s">
         <v>484</v>
       </c>
@@ -15947,7 +15936,7 @@
       </c>
       <c r="H338" s="40"/>
     </row>
-    <row ht="15.75" r="339" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A339" s="63" t="s">
         <v>484</v>
       </c>
@@ -16175,7 +16164,7 @@
       </c>
       <c r="H346" s="50"/>
     </row>
-    <row ht="15.75" r="347" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A347" s="63" t="s">
         <v>485</v>
       </c>
@@ -16489,7 +16478,7 @@
       </c>
       <c r="H360" s="50"/>
     </row>
-    <row ht="15.75" r="361" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A361" s="63" t="s">
         <v>486</v>
       </c>
@@ -16757,7 +16746,7 @@
       </c>
       <c r="H372" s="62"/>
     </row>
-    <row ht="15.75" r="373" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A373" s="63" t="s">
         <v>487</v>
       </c>
@@ -16957,7 +16946,7 @@
       </c>
       <c r="H381" s="50"/>
     </row>
-    <row ht="15.75" r="382" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A382" s="62" t="s">
         <v>488</v>
       </c>
@@ -17183,7 +17172,7 @@
       </c>
       <c r="H391" s="50"/>
     </row>
-    <row ht="15.75" r="392" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A392" s="63" t="s">
         <v>489</v>
       </c>
@@ -17407,7 +17396,7 @@
       </c>
       <c r="H401" s="50"/>
     </row>
-    <row ht="15.75" r="402" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A402" s="63" t="s">
         <v>490</v>
       </c>
@@ -17607,7 +17596,7 @@
       </c>
       <c r="H410" s="50"/>
     </row>
-    <row ht="15.75" r="411" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A411" s="62" t="s">
         <v>491</v>
       </c>
@@ -17949,7 +17938,7 @@
       </c>
       <c r="H425" s="62"/>
     </row>
-    <row ht="15.75" r="426" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A426" s="99" t="s">
         <v>492</v>
       </c>
@@ -18359,7 +18348,7 @@
       </c>
       <c r="H443" s="50"/>
     </row>
-    <row ht="15.75" r="444" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A444" s="99" t="s">
         <v>493</v>
       </c>
@@ -18627,7 +18616,7 @@
       </c>
       <c r="H455" s="50"/>
     </row>
-    <row ht="15.75" r="456" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A456" s="63" t="s">
         <v>494</v>
       </c>
@@ -18943,7 +18932,7 @@
       </c>
       <c r="H469" s="50"/>
     </row>
-    <row ht="15.75" r="470" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A470" s="99" t="s">
         <v>495</v>
       </c>
@@ -19235,7 +19224,7 @@
       </c>
       <c r="H482" s="50"/>
     </row>
-    <row ht="15.75" r="483" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A483" s="99" t="s">
         <v>496</v>
       </c>
@@ -19536,7 +19525,7 @@
       </c>
       <c r="H495" s="50"/>
     </row>
-    <row ht="15.75" r="496" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A496" s="99" t="s">
         <v>497</v>
       </c>
@@ -19984,7 +19973,7 @@
       </c>
       <c r="H515" s="50"/>
     </row>
-    <row ht="15.75" r="516" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A516" s="99" t="s">
         <v>498</v>
       </c>
@@ -20210,7 +20199,7 @@
       </c>
       <c r="H525" s="50"/>
     </row>
-    <row ht="15.75" r="526" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A526" s="47" t="s">
         <v>499</v>
       </c>
@@ -20537,7 +20526,7 @@
       </c>
       <c r="H539" s="50"/>
     </row>
-    <row ht="15.75" r="540" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A540" s="48" t="s">
         <v>500</v>
       </c>
@@ -20698,7 +20687,7 @@
       </c>
       <c r="H546" s="50"/>
     </row>
-    <row ht="15.75" r="547" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A547" s="85" t="s">
         <v>501</v>
       </c>
@@ -20863,7 +20852,7 @@
       </c>
       <c r="H553" s="50"/>
     </row>
-    <row ht="15.75" r="554" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A554" s="48" t="s">
         <v>502</v>
       </c>
@@ -20997,7 +20986,7 @@
       </c>
       <c r="H559" s="50"/>
     </row>
-    <row ht="15.75" r="560" spans="1:15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A560" s="62" t="s">
         <v>506</v>
       </c>
@@ -21087,7 +21076,7 @@
       </c>
       <c r="H563" s="50"/>
     </row>
-    <row ht="15.75" r="564" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A564" s="48" t="s">
         <v>507</v>
       </c>
@@ -21265,7 +21254,7 @@
       </c>
       <c r="H571" s="50"/>
     </row>
-    <row ht="15.75" r="572" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A572" s="63" t="s">
         <v>521</v>
       </c>
@@ -21535,7 +21524,7 @@
       </c>
       <c r="H583" s="50"/>
     </row>
-    <row ht="15.75" r="584" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A584" s="62" t="s">
         <v>529</v>
       </c>
@@ -21851,7 +21840,7 @@
       </c>
       <c r="H597" s="50"/>
     </row>
-    <row ht="15.75" r="598" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A598" s="63" t="s">
         <v>537</v>
       </c>
@@ -22217,7 +22206,7 @@
       </c>
       <c r="H613" s="50"/>
     </row>
-    <row ht="15.75" r="614" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A614" s="63" t="s">
         <v>548</v>
       </c>
@@ -22621,7 +22610,7 @@
       </c>
       <c r="H631" s="50"/>
     </row>
-    <row ht="15.75" r="632" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A632" s="62" t="s">
         <v>549</v>
       </c>
@@ -22781,7 +22770,7 @@
       </c>
       <c r="H638" s="50"/>
     </row>
-    <row ht="15.75" r="639" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A639" s="63" t="s">
         <v>578</v>
       </c>
@@ -22825,7 +22814,7 @@
       </c>
       <c r="H640" s="50"/>
     </row>
-    <row ht="15.75" r="641" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A641" s="88" t="s">
         <v>579</v>
       </c>
@@ -22869,7 +22858,7 @@
       </c>
       <c r="H642" s="50"/>
     </row>
-    <row ht="15.75" r="643" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A643" s="98" t="s">
         <v>580</v>
       </c>
@@ -22957,7 +22946,7 @@
       </c>
       <c r="H646" s="50"/>
     </row>
-    <row ht="15.75" r="647" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A647" s="63" t="s">
         <v>581</v>
       </c>
@@ -23139,7 +23128,7 @@
       </c>
       <c r="H654" s="50"/>
     </row>
-    <row ht="15.75" r="655" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A655" s="63" t="s">
         <v>582</v>
       </c>
@@ -23209,7 +23198,7 @@
       </c>
       <c r="H657" s="50"/>
     </row>
-    <row ht="15.75" r="658" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A658" s="63" t="s">
         <v>583</v>
       </c>
@@ -23253,7 +23242,7 @@
       </c>
       <c r="H659" s="50"/>
     </row>
-    <row ht="15.75" r="660" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A660" s="63" t="s">
         <v>584</v>
       </c>
@@ -23297,7 +23286,7 @@
       </c>
       <c r="H661" s="50"/>
     </row>
-    <row ht="15.75" r="662" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A662" s="63" t="s">
         <v>585</v>
       </c>
@@ -23341,7 +23330,7 @@
       </c>
       <c r="H663" s="50"/>
     </row>
-    <row ht="15.75" r="664" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A664" s="63" t="s">
         <v>586</v>
       </c>
@@ -23587,7 +23576,7 @@
       </c>
       <c r="H674" s="50"/>
     </row>
-    <row ht="15.75" r="675" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A675" s="63" t="s">
         <v>588</v>
       </c>
@@ -23749,7 +23738,7 @@
       </c>
       <c r="H681" s="50"/>
     </row>
-    <row ht="15.75" r="682" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A682" s="62" t="s">
         <v>589</v>
       </c>
@@ -23843,7 +23832,7 @@
       </c>
       <c r="H685" s="62"/>
     </row>
-    <row ht="15.75" r="686" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A686" s="62" t="s">
         <v>651</v>
       </c>
@@ -23935,7 +23924,7 @@
       </c>
       <c r="H689" s="50"/>
     </row>
-    <row ht="15.75" r="690" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A690" s="62" t="s">
         <v>657</v>
       </c>
@@ -24047,7 +24036,7 @@
       </c>
       <c r="H694" s="69"/>
     </row>
-    <row ht="15.75" r="695" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A695" s="113" t="s">
         <v>666</v>
       </c>
@@ -24231,7 +24220,7 @@
       </c>
       <c r="H702" s="50"/>
     </row>
-    <row ht="15.75" r="703" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A703" s="50" t="s">
         <v>668</v>
       </c>
@@ -24657,7 +24646,7 @@
       </c>
       <c r="H721" s="50"/>
     </row>
-    <row ht="15.75" r="722" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A722" s="63" t="s">
         <v>690</v>
       </c>
@@ -25019,7 +25008,7 @@
       </c>
       <c r="H737" s="50"/>
     </row>
-    <row ht="15.75" r="738" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A738" s="62" t="s">
         <v>711</v>
       </c>
@@ -25357,7 +25346,7 @@
       </c>
       <c r="H752" s="62"/>
     </row>
-    <row ht="15.75" r="753" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A753" s="56" t="s">
         <v>712</v>
       </c>
@@ -25521,7 +25510,7 @@
       </c>
       <c r="H759" s="50"/>
     </row>
-    <row ht="15.75" r="760" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A760" s="62" t="s">
         <v>644</v>
       </c>
@@ -25795,7 +25784,7 @@
       </c>
       <c r="H771" s="50"/>
     </row>
-    <row ht="15.75" r="772" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A772" s="56" t="s">
         <v>676</v>
       </c>
@@ -25907,7 +25896,7 @@
       </c>
       <c r="H776" s="50"/>
     </row>
-    <row ht="15.75" r="777" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A777" s="62" t="s">
         <v>713</v>
       </c>
@@ -26019,7 +26008,7 @@
       </c>
       <c r="H781" s="50"/>
     </row>
-    <row ht="15.75" r="782" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A782" s="62" t="s">
         <v>720</v>
       </c>
@@ -26221,7 +26210,7 @@
       </c>
       <c r="H790" s="50"/>
     </row>
-    <row ht="15.75" r="791" spans="1:8" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A791" s="50" t="s">
         <v>747</v>
       </c>
@@ -27259,582 +27248,582 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="H5 H1:H3 H280:H283 H296:H299 H7:H12 H318 H320:H324 H20">
-    <cfRule dxfId="145" operator="containsText" priority="819" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="145" priority="819" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H1)))</formula>
     </cfRule>
-    <cfRule dxfId="144" operator="containsText" priority="820" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="144" priority="820" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H2:H3 H280:H283 H296:H299 H7:H12 H318 H320:H324 H20">
-    <cfRule dxfId="143" operator="containsText" priority="817" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="143" priority="817" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H2)))</formula>
     </cfRule>
-    <cfRule dxfId="142" operator="containsText" priority="818" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="142" priority="818" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule dxfId="141" operator="containsText" priority="769" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="141" priority="769" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H6)))</formula>
     </cfRule>
-    <cfRule dxfId="140" operator="containsText" priority="770" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="140" priority="770" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule dxfId="139" operator="containsText" priority="771" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="139" priority="771" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H6)))</formula>
     </cfRule>
-    <cfRule dxfId="138" operator="containsText" priority="772" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="138" priority="772" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule dxfId="137" operator="containsText" priority="767" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="137" priority="767" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H4)))</formula>
     </cfRule>
-    <cfRule dxfId="136" operator="containsText" priority="768" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="136" priority="768" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule dxfId="135" operator="containsText" priority="765" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="135" priority="765" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H4)))</formula>
     </cfRule>
-    <cfRule dxfId="134" operator="containsText" priority="766" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="134" priority="766" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H339 H351:H354 H327:H329 H332:H337 H280:H293 H296:H303 H342:H349 H357:H362 H375:H383 H393 H403 H412:H417 H421:H432 H307:H310 H312:H318 H320:H324 H1:H12 H440:H722 H755:H772 H809:H1048576 H119:H252 H260:H277 H20:H29 H38:H45 H47:H76">
-    <cfRule dxfId="133" operator="containsText" priority="747" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="133" priority="747" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H1)))</formula>
     </cfRule>
-    <cfRule dxfId="132" operator="containsText" priority="748" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="132" priority="748" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H29 H22">
-    <cfRule dxfId="131" operator="containsText" priority="745" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="131" priority="745" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H22)))</formula>
     </cfRule>
-    <cfRule dxfId="130" operator="containsText" priority="746" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="130" priority="746" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24:H29 H22">
-    <cfRule dxfId="129" operator="containsText" priority="743" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="129" priority="743" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H22)))</formula>
     </cfRule>
-    <cfRule dxfId="128" operator="containsText" priority="744" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="128" priority="744" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule dxfId="127" operator="containsText" priority="739" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="127" priority="739" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H23)))</formula>
     </cfRule>
-    <cfRule dxfId="126" operator="containsText" priority="740" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="126" priority="740" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule dxfId="125" operator="containsText" priority="741" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="125" priority="741" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H23)))</formula>
     </cfRule>
-    <cfRule dxfId="124" operator="containsText" priority="742" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="124" priority="742" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H23)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule dxfId="123" operator="containsText" priority="737" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="123" priority="737" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H21)))</formula>
     </cfRule>
-    <cfRule dxfId="122" operator="containsText" priority="738" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="122" priority="738" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule dxfId="121" operator="containsText" priority="735" text="fail" type="containsText">
+    <cfRule type="containsText" dxfId="121" priority="735" operator="containsText" text="fail">
       <formula>NOT(ISERROR(SEARCH("fail",H21)))</formula>
     </cfRule>
-    <cfRule dxfId="120" operator="containsText" priority="736" text="pass" type="containsText">
+    <cfRule type="containsText" dxfId="120" priority="736" operator="containsText" text="pass">
       <formula>NOT(ISERROR(SEARCH("pass",H21)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83:H101 H103:H118">
-    <cfRule dxfId="119" operator="containsText" priority="731" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="119" priority="731" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H83)))</formula>
     </cfRule>
-    <cfRule dxfId="118" operator="containsText" priority="732" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="118" priority="732" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H304">
-    <cfRule dxfId="117" operator="containsText" priority="727" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="117" priority="727" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H304)))</formula>
     </cfRule>
-    <cfRule dxfId="116" operator="containsText" priority="728" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="116" priority="728" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H304)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H350">
-    <cfRule dxfId="115" operator="containsText" priority="721" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="115" priority="721" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H350)))</formula>
     </cfRule>
-    <cfRule dxfId="114" operator="containsText" priority="722" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="114" priority="722" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H350)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H364:H374">
-    <cfRule dxfId="113" operator="containsText" priority="719" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="113" priority="719" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H364)))</formula>
     </cfRule>
-    <cfRule dxfId="112" operator="containsText" priority="720" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="112" priority="720" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H364)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H363">
-    <cfRule dxfId="111" operator="containsText" priority="713" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="111" priority="713" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H363)))</formula>
     </cfRule>
-    <cfRule dxfId="110" operator="containsText" priority="714" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="110" priority="714" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H363)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H355">
-    <cfRule dxfId="109" operator="containsText" priority="711" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="109" priority="711" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H355)))</formula>
     </cfRule>
-    <cfRule dxfId="108" operator="containsText" priority="712" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="108" priority="712" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H355)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H356">
-    <cfRule dxfId="107" operator="containsText" priority="709" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="107" priority="709" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H356)))</formula>
     </cfRule>
-    <cfRule dxfId="106" operator="containsText" priority="710" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="106" priority="710" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H356)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H374">
-    <cfRule dxfId="105" operator="containsText" priority="701" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="105" priority="701" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H374)))</formula>
     </cfRule>
-    <cfRule dxfId="104" operator="containsText" priority="702" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="104" priority="702" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H374)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H385:H392">
-    <cfRule dxfId="103" operator="containsText" priority="699" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="103" priority="699" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H385)))</formula>
     </cfRule>
-    <cfRule dxfId="102" operator="containsText" priority="700" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="102" priority="700" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H385)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H384">
-    <cfRule dxfId="101" operator="containsText" priority="693" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="101" priority="693" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H384)))</formula>
     </cfRule>
-    <cfRule dxfId="100" operator="containsText" priority="694" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="100" priority="694" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H384)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H395:H402">
-    <cfRule dxfId="99" operator="containsText" priority="691" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="99" priority="691" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H395)))</formula>
     </cfRule>
-    <cfRule dxfId="98" operator="containsText" priority="692" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="98" priority="692" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H395)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H394">
-    <cfRule dxfId="97" operator="containsText" priority="685" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="97" priority="685" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H394)))</formula>
     </cfRule>
-    <cfRule dxfId="96" operator="containsText" priority="686" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="96" priority="686" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H394)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H405:H411">
-    <cfRule dxfId="95" operator="containsText" priority="683" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="95" priority="683" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H405)))</formula>
     </cfRule>
-    <cfRule dxfId="94" operator="containsText" priority="684" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="94" priority="684" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H405)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H404">
-    <cfRule dxfId="93" operator="containsText" priority="677" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="93" priority="677" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H404)))</formula>
     </cfRule>
-    <cfRule dxfId="92" operator="containsText" priority="678" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="92" priority="678" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H404)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H311:H312">
-    <cfRule dxfId="91" operator="containsText" priority="671" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="91" priority="671" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H311)))</formula>
     </cfRule>
-    <cfRule dxfId="90" operator="containsText" priority="672" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="90" priority="672" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H311)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H325">
-    <cfRule dxfId="89" operator="containsText" priority="665" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="89" priority="665" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H325)))</formula>
     </cfRule>
-    <cfRule dxfId="88" operator="containsText" priority="666" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="88" priority="666" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H325)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H318">
-    <cfRule dxfId="87" operator="containsText" priority="653" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="87" priority="653" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H318)))</formula>
     </cfRule>
-    <cfRule dxfId="86" operator="containsText" priority="654" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="86" priority="654" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H318)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H330">
-    <cfRule dxfId="85" operator="containsText" priority="647" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="85" priority="647" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H330)))</formula>
     </cfRule>
-    <cfRule dxfId="84" operator="containsText" priority="648" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="84" priority="648" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H330)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H340">
-    <cfRule dxfId="83" operator="containsText" priority="641" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="83" priority="641" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H340)))</formula>
     </cfRule>
-    <cfRule dxfId="82" operator="containsText" priority="642" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="82" priority="642" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H340)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H433">
-    <cfRule dxfId="81" operator="containsText" priority="637" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="81" priority="637" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H433)))</formula>
     </cfRule>
-    <cfRule dxfId="80" operator="containsText" priority="638" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="80" priority="638" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H433)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H438:H439">
-    <cfRule dxfId="79" operator="containsText" priority="635" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="79" priority="635" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H438)))</formula>
     </cfRule>
-    <cfRule dxfId="78" operator="containsText" priority="636" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="78" priority="636" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H438)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H437">
-    <cfRule dxfId="77" operator="containsText" priority="631" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="77" priority="631" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H437)))</formula>
     </cfRule>
-    <cfRule dxfId="76" operator="containsText" priority="632" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="76" priority="632" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H437)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77:H82">
-    <cfRule dxfId="75" operator="containsText" priority="193" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="75" priority="193" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H77)))</formula>
     </cfRule>
-    <cfRule dxfId="74" operator="containsText" priority="194" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="74" priority="194" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H294">
-    <cfRule dxfId="73" operator="containsText" priority="177" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="73" priority="177" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H294)))</formula>
     </cfRule>
-    <cfRule dxfId="72" operator="containsText" priority="178" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="72" priority="178" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H294)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H295">
-    <cfRule dxfId="71" operator="containsText" priority="175" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="71" priority="175" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H295)))</formula>
     </cfRule>
-    <cfRule dxfId="70" operator="containsText" priority="176" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="70" priority="176" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H295)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H295">
-    <cfRule dxfId="69" operator="containsText" priority="173" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="69" priority="173" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H295)))</formula>
     </cfRule>
-    <cfRule dxfId="68" operator="containsText" priority="174" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="68" priority="174" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H295)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H278">
-    <cfRule dxfId="67" operator="containsText" priority="167" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="67" priority="167" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H278)))</formula>
     </cfRule>
-    <cfRule dxfId="66" operator="containsText" priority="168" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="66" priority="168" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H278)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H279">
-    <cfRule dxfId="65" operator="containsText" priority="165" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="65" priority="165" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H279)))</formula>
     </cfRule>
-    <cfRule dxfId="64" operator="containsText" priority="166" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="64" priority="166" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H279">
-    <cfRule dxfId="63" operator="containsText" priority="163" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="63" priority="163" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H279)))</formula>
     </cfRule>
-    <cfRule dxfId="62" operator="containsText" priority="164" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="62" priority="164" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H279)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H418:H420">
-    <cfRule dxfId="61" operator="containsText" priority="83" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="61" priority="83" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H418)))</formula>
     </cfRule>
-    <cfRule dxfId="60" operator="containsText" priority="84" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="60" priority="84" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H418)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H434:H436">
-    <cfRule dxfId="59" operator="containsText" priority="81" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="59" priority="81" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H434)))</formula>
     </cfRule>
-    <cfRule dxfId="58" operator="containsText" priority="82" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="58" priority="82" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H434)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H305:H306">
-    <cfRule dxfId="57" operator="containsText" priority="79" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="57" priority="79" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H305)))</formula>
     </cfRule>
-    <cfRule dxfId="56" operator="containsText" priority="80" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="56" priority="80" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H305:H306">
-    <cfRule dxfId="55" operator="containsText" priority="77" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="55" priority="77" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H305)))</formula>
     </cfRule>
-    <cfRule dxfId="54" operator="containsText" priority="78" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="54" priority="78" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H305)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H319">
-    <cfRule dxfId="53" operator="containsText" priority="75" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="53" priority="75" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H319)))</formula>
     </cfRule>
-    <cfRule dxfId="52" operator="containsText" priority="76" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="52" priority="76" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H319)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H319">
-    <cfRule dxfId="51" operator="containsText" priority="73" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="51" priority="73" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H319)))</formula>
     </cfRule>
-    <cfRule dxfId="50" operator="containsText" priority="74" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="50" priority="74" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H319)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H326">
-    <cfRule dxfId="49" operator="containsText" priority="71" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="49" priority="71" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H326)))</formula>
     </cfRule>
-    <cfRule dxfId="48" operator="containsText" priority="72" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="48" priority="72" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H326)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H326">
-    <cfRule dxfId="47" operator="containsText" priority="69" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="47" priority="69" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H326)))</formula>
     </cfRule>
-    <cfRule dxfId="46" operator="containsText" priority="70" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="46" priority="70" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H326)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H331">
-    <cfRule dxfId="45" operator="containsText" priority="67" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="45" priority="67" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H331)))</formula>
     </cfRule>
-    <cfRule dxfId="44" operator="containsText" priority="68" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="44" priority="68" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H331)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H331">
-    <cfRule dxfId="43" operator="containsText" priority="65" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="43" priority="65" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H331)))</formula>
     </cfRule>
-    <cfRule dxfId="42" operator="containsText" priority="66" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="42" priority="66" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H331)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule dxfId="41" operator="containsText" priority="63" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="41" priority="63" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H341)))</formula>
     </cfRule>
-    <cfRule dxfId="40" operator="containsText" priority="64" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="40" priority="64" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H341">
-    <cfRule dxfId="39" operator="containsText" priority="61" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="39" priority="61" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H341)))</formula>
     </cfRule>
-    <cfRule dxfId="38" operator="containsText" priority="62" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="38" priority="62" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H341)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H754">
-    <cfRule dxfId="37" operator="containsText" priority="31" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="37" priority="31" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H754)))</formula>
     </cfRule>
-    <cfRule dxfId="36" operator="containsText" priority="32" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="36" priority="32" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H754)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:H12 H260:H1048576 H20:H29 H38:H45 H103:H252 H47:H101">
-    <cfRule dxfId="35" operator="containsText" priority="27" text="PASS" type="containsText">
+    <cfRule type="containsText" dxfId="35" priority="27" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H1)))</formula>
     </cfRule>
-    <cfRule dxfId="34" operator="containsText" priority="28" text="FAIL" type="containsText">
+    <cfRule type="containsText" dxfId="34" priority="28" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H254:H259">
-    <cfRule dxfId="33" operator="containsText" priority="25" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="33" priority="25" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H254)))</formula>
     </cfRule>
-    <cfRule dxfId="32" operator="containsText" priority="26" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="32" priority="26" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H254)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H253">
-    <cfRule dxfId="31" operator="containsText" priority="23" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="31" priority="23" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H253)))</formula>
     </cfRule>
-    <cfRule dxfId="30" operator="containsText" priority="24" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="30" priority="24" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H253:H259">
-    <cfRule dxfId="29" operator="containsText" priority="21" text="PASS" type="containsText">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H253)))</formula>
     </cfRule>
-    <cfRule dxfId="28" operator="containsText" priority="22" text="FAIL" type="containsText">
+    <cfRule type="containsText" dxfId="28" priority="22" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H253)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14:H19">
-    <cfRule dxfId="27" operator="containsText" priority="19" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="27" priority="19" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H14)))</formula>
     </cfRule>
-    <cfRule dxfId="26" operator="containsText" priority="20" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="26" priority="20" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule dxfId="25" operator="containsText" priority="17" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="25" priority="17" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H13)))</formula>
     </cfRule>
-    <cfRule dxfId="24" operator="containsText" priority="18" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="24" priority="18" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13:H19">
-    <cfRule dxfId="23" operator="containsText" priority="15" text="PASS" type="containsText">
+    <cfRule type="containsText" dxfId="23" priority="15" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H13)))</formula>
     </cfRule>
-    <cfRule dxfId="22" operator="containsText" priority="16" text="FAIL" type="containsText">
+    <cfRule type="containsText" dxfId="22" priority="16" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31:H37">
-    <cfRule dxfId="21" operator="containsText" priority="13" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="21" priority="13" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H31)))</formula>
     </cfRule>
-    <cfRule dxfId="20" operator="containsText" priority="14" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="20" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H31)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule dxfId="19" operator="containsText" priority="11" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="19" priority="11" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H30)))</formula>
     </cfRule>
-    <cfRule dxfId="18" operator="containsText" priority="12" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="18" priority="12" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30:H37">
-    <cfRule dxfId="17" operator="containsText" priority="9" text="PASS" type="containsText">
+    <cfRule type="containsText" dxfId="17" priority="9" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H30)))</formula>
     </cfRule>
-    <cfRule dxfId="16" operator="containsText" priority="10" text="FAIL" type="containsText">
+    <cfRule type="containsText" dxfId="16" priority="10" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule dxfId="15" operator="containsText" priority="7" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H102)))</formula>
     </cfRule>
-    <cfRule dxfId="14" operator="containsText" priority="8" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="14" priority="8" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H102">
-    <cfRule dxfId="13" operator="containsText" priority="5" text="PASS" type="containsText">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H102)))</formula>
     </cfRule>
-    <cfRule dxfId="12" operator="containsText" priority="6" text="FAIL" type="containsText">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H102)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule dxfId="11" operator="containsText" priority="3" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",H46)))</formula>
     </cfRule>
-    <cfRule dxfId="10" operator="containsText" priority="4" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",H46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule dxfId="9" operator="containsText" priority="1" text="PASS" type="containsText">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="PASS">
       <formula>NOT(ISERROR(SEARCH("PASS",H46)))</formula>
     </cfRule>
-    <cfRule dxfId="8" operator="containsText" priority="2" text="FAIL" type="containsText">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="FAIL">
       <formula>NOT(ISERROR(SEARCH("FAIL",H46)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="F109:F223 F73:F107 F404:F411 F350:F361 F384:F392 F394:F402 F413:F426 F428:F444 F364:F374 F376:F382 F809:F1048576 F568:F574 F576:F585 F446:F566 F587:F616 F618:F620 F622:F633 F225:F347 F635:F722 F725:F727 F741:F744 F754:F773 F2:F71" type="list" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F109:F223 F73:F107 F404:F411 F350:F361 F384:F392 F394:F402 F413:F426 F428:F444 F364:F374 F376:F382 F809:F1048576 F568:F574 F576:F585 F446:F566 F587:F616 F618:F620 F622:F633 F225:F347 F635:F722 F725:F727 F741:F744 F754:F773 F2:F71" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Action_Keywords</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="D109:D223 D73:D107 D404:D411 D350:D361 D384:D392 D394:D402 D413:D426 D635:D640 D662:D670 D642 D428:D444 D363:D374 D376:D382 D568:D574 D576:D585 D644:D659 D446:D566 D587:D616 D618:D620 D622:D633 D225:D347 D673:D722 D725:D727 D741:D743 D754:D772 D809:D1048576 D2:D71" type="list" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D109:D223 D73:D107 D404:D411 D350:D361 D384:D392 D394:D402 D413:D426 D635:D640 D662:D670 D642 D428:D444 D363:D374 D376:D382 D568:D574 D576:D585 D644:D659 D446:D566 D587:D616 D618:D620 D622:D633 D225:D347 D673:D722 D725:D727 D741:D743 D754:D772 D809:D1048576 D2:D71" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>Page_Name</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="E109:E223 E635:E640 E651:E659 E662:E670 E642 E350:E361 E384:E392 E394:E402 E404:E411 E413:E426 E428:E444 E307:E311 E313:E318 E320:E325 E327:E330 E342:E347 E376:E382 E363:E374 E332:E340 E568:E574 E644:E649 E576:E585 E446:E566 E587:E616 E618:E620 E622:E633 E673:E703 E754:E770 E725:E727 E741:E743 E225:E304 E73:E107 E2:E71 E809:E1048576" type="list" xr:uid="{00000000-0002-0000-0100-000002000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E109:E223 E635:E640 E651:E659 E662:E670 E642 E350:E361 E384:E392 E394:E402 E404:E411 E413:E426 E428:E444 E307:E311 E313:E318 E320:E325 E327:E330 E342:E347 E376:E382 E363:E374 E332:E340 E568:E574 E644:E649 E576:E585 E446:E566 E587:E616 E618:E620 E622:E633 E673:E703 E754:E770 E725:E727 E741:E743 E225:E304 E73:E107 E2:E71 E809:E1048576" xr:uid="{00000000-0002-0000-0100-000002000000}">
       <formula1>INDIRECT(D2)</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="A662:A670 A642 A644:A659 A339:A640 A673:A722 A754:A772 A809:A1048576 A2:A337" type="list" xr:uid="{00000000-0002-0000-0100-000003000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A662:A670 A642 A644:A659 A339:A640 A673:A722 A754:A772 A809:A1048576 A2:A337" xr:uid="{00000000-0002-0000-0100-000003000000}">
       <formula1>Test_Case_ID</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="G233" xr:uid="{E51B3785-3DCD-47DE-9558-FA6E0B572A63}"/>
+    <hyperlink ref="G233" r:id="rId1" xr:uid="{E51B3785-3DCD-47DE-9558-FA6E0B572A63}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:AY3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AX3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
@@ -27842,13 +27831,13 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="13" width="26.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="13" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="13" width="40.0" collapsed="true"/>
-    <col min="4" max="16384" style="13" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26.5703125" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40" style="13" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="13" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -27892,33 +27881,33 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="7" operator="containsText" priority="13" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="7" priority="13" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C1)))</formula>
     </cfRule>
-    <cfRule dxfId="6" operator="containsText" priority="14" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="6" priority="14" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule dxfId="5" operator="containsText" priority="1" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C3)))</formula>
     </cfRule>
-    <cfRule dxfId="4" operator="containsText" priority="2" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="4" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A3" xr:uid="{25EDA5D6-0FFC-4A50-B7CF-BD4C82A5FD6B}"/>
-    <hyperlink r:id="rId2" ref="B3" xr:uid="{487AC0B0-3FC6-422C-8CD0-5E0307CBD5FE}"/>
+    <hyperlink ref="A3" r:id="rId1" xr:uid="{25EDA5D6-0FFC-4A50-B7CF-BD4C82A5FD6B}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{487AC0B0-3FC6-422C-8CD0-5E0307CBD5FE}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AY4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:AX4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
@@ -27926,12 +27915,12 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="40.0" collapsed="true"/>
+    <col min="1" max="1" width="35.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="40" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" spans="1:50" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -27992,35 +27981,35 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
-    <cfRule dxfId="3" operator="containsText" priority="3" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C1)))</formula>
     </cfRule>
-    <cfRule dxfId="2" operator="containsText" priority="4" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule dxfId="1" operator="containsText" priority="1" text="Pass" type="containsText">
+    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Pass">
       <formula>NOT(ISERROR(SEARCH("Pass",C3)))</formula>
     </cfRule>
-    <cfRule dxfId="0" operator="containsText" priority="2" text="Fail" type="containsText">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="Fail">
       <formula>NOT(ISERROR(SEARCH("Fail",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A2" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
-    <hyperlink r:id="rId2" ref="A3" xr:uid="{C1A16A85-CCD3-44F1-A2E6-C2EA22E0D46B}"/>
-    <hyperlink r:id="rId3" ref="B3" xr:uid="{F4E12619-FD30-419D-86F8-76EA8881E197}"/>
-    <hyperlink r:id="rId4" ref="A4" xr:uid="{6AF51941-BD26-4A27-A99B-D8F784B30E39}"/>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{C1A16A85-CCD3-44F1-A2E6-C2EA22E0D46B}"/>
+    <hyperlink ref="B3" r:id="rId3" xr:uid="{F4E12619-FD30-419D-86F8-76EA8881E197}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{6AF51941-BD26-4A27-A99B-D8F784B30E39}"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup fitToHeight="0" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C23" sqref="C23"/>
@@ -28028,9 +28017,9 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="58.42578125" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="1" max="1" width="25" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="58.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -28116,13 +28105,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O34"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:N34"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
@@ -28130,22 +28119,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" customWidth="true" style="30" width="23.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="30" width="23.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="30" width="18.28515625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="30" width="25.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="30" width="33.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="30" width="28.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="30" width="31.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="30" width="31.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="30" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="30" width="20.7109375" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="30" width="31.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="30" width="29.7109375" collapsed="true"/>
-    <col min="15" max="16384" style="30" width="9.140625" collapsed="true"/>
+    <col min="1" max="2" width="23.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="25.140625" style="30" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28" style="30" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.28515625" style="30" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" style="30" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="31.85546875" style="30" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.7109375" style="30" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="30" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="29.25" r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
@@ -29016,14 +29005,14 @@
       <c r="N34" s="32"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:C92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:B92"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A62" workbookViewId="0">
       <selection activeCell="A79" sqref="A79"/>
@@ -29031,7 +29020,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -29490,8 +29479,8 @@
       <c r="A92" s="7"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>